--- a/regions/11/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
+++ b/regions/11/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -206,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -254,10 +254,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -564,45 +565,49 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.5" customHeight="1">
+    <row r="1" spans="1:18" ht="28.5" customHeight="1">
       <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" hidden="1" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" hidden="1" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="3"/>
       <c r="B3" s="20">
         <v>2006</v>
@@ -649,8 +654,14 @@
       <c r="P3" s="21">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75">
+      <c r="Q3" s="21">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="21">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -699,8 +710,14 @@
       <c r="P4" s="12">
         <v>30.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75">
+      <c r="Q4" s="12">
+        <v>32.4</v>
+      </c>
+      <c r="R4" s="12">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -749,8 +766,14 @@
       <c r="P5" s="13">
         <v>31.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75">
+      <c r="Q5" s="13">
+        <v>32.4</v>
+      </c>
+      <c r="R5" s="13">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
@@ -799,8 +822,14 @@
       <c r="P6" s="19">
         <v>1287</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75">
+      <c r="Q6" s="19">
+        <v>1292</v>
+      </c>
+      <c r="R6" s="19">
+        <v>1294.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -849,8 +878,14 @@
       <c r="P7" s="19">
         <v>1263</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75">
+      <c r="Q7" s="19">
+        <v>1212</v>
+      </c>
+      <c r="R7" s="19">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
@@ -899,8 +934,14 @@
       <c r="P8" s="13">
         <v>363.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75">
+      <c r="Q8" s="13">
+        <v>395.9</v>
+      </c>
+      <c r="R8" s="13">
+        <v>927.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -949,8 +990,14 @@
       <c r="P9" s="13">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75">
+      <c r="Q9" s="13">
+        <v>23.5</v>
+      </c>
+      <c r="R9" s="13">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -999,8 +1046,14 @@
       <c r="P10" s="12">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75">
+      <c r="Q10" s="12">
+        <v>5.8</v>
+      </c>
+      <c r="R10" s="12">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
@@ -1049,8 +1102,14 @@
       <c r="P11" s="12">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75">
+      <c r="Q11" s="12">
+        <v>8.9</v>
+      </c>
+      <c r="R11" s="12">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75">
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
@@ -1099,8 +1158,14 @@
       <c r="P12" s="13">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75">
+      <c r="Q12" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="R12" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75">
       <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
@@ -1149,8 +1214,14 @@
       <c r="P13" s="13">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="30">
+      <c r="Q13" s="13">
+        <v>23.2</v>
+      </c>
+      <c r="R13" s="13">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30">
       <c r="A14" s="17" t="s">
         <v>15</v>
       </c>
@@ -1199,8 +1270,14 @@
       <c r="P14" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="7"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1217,7 +1294,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1">
+    <row r="16" spans="1:18" s="1" customFormat="1">
       <c r="A16" s="8" t="s">
         <v>2</v>
       </c>
@@ -1291,7 +1368,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regions/11/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
+++ b/regions/11/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
@@ -553,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -565,7 +565,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.5" customHeight="1">
+    <row r="1" spans="1:19" ht="28.5" customHeight="1">
       <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
@@ -587,7 +587,7 @@
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
     </row>
-    <row r="2" spans="1:18" ht="15" hidden="1" customHeight="1">
+    <row r="2" spans="1:19" ht="15" hidden="1" customHeight="1">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -607,7 +607,7 @@
       <c r="Q2" s="23"/>
       <c r="R2" s="23"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="3"/>
       <c r="B3" s="20">
         <v>2006</v>
@@ -660,8 +660,11 @@
       <c r="R3" s="21">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75">
+      <c r="S3" s="21">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -716,8 +719,11 @@
       <c r="R4" s="12">
         <v>63.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75">
+      <c r="S4" s="12">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -772,8 +778,11 @@
       <c r="R5" s="13">
         <v>63.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75">
+      <c r="S5" s="13">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
@@ -828,8 +837,11 @@
       <c r="R6" s="19">
         <v>1294.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75">
+      <c r="S6" s="19">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -884,8 +896,11 @@
       <c r="R7" s="19">
         <v>1282</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75">
+      <c r="S7" s="19">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75">
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
@@ -940,8 +955,11 @@
       <c r="R8" s="13">
         <v>927.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75">
+      <c r="S8" s="13">
+        <v>1219.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -996,8 +1014,11 @@
       <c r="R9" s="13">
         <v>26.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75">
+      <c r="S9" s="13">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -1052,8 +1073,11 @@
       <c r="R10" s="12">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75">
+      <c r="S10" s="12">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75">
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
@@ -1108,8 +1132,11 @@
       <c r="R11" s="12">
         <v>36.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75">
+      <c r="S11" s="12">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75">
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
@@ -1164,8 +1191,11 @@
       <c r="R12" s="13">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75">
+      <c r="S12" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75">
       <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
@@ -1220,8 +1250,11 @@
       <c r="R13" s="13">
         <v>26.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="30">
+      <c r="S13" s="13">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="30">
       <c r="A14" s="17" t="s">
         <v>15</v>
       </c>
@@ -1276,8 +1309,11 @@
       <c r="R14" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="12">
+        <v>0.3841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="7"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1294,7 +1330,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1">
+    <row r="16" spans="1:19" s="1" customFormat="1">
       <c r="A16" s="8" t="s">
         <v>2</v>
       </c>
